--- a/target/test-classes/testdata/SampleTestDataSheet.xlsx
+++ b/target/test-classes/testdata/SampleTestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Balu_Capgemini_Documents\SeleniumAutomation\automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCFF024-53F7-4B93-811A-B2D252D42D0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35964932-FB9F-4EDD-AC55-AB542B22E230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="15240" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TestCase</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>TestCase3</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,6 +434,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
